--- a/task3/results/Excel/DistributionAccessesPerHour.xlsx
+++ b/task3/results/Excel/DistributionAccessesPerHour.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Programmieren\00_hochschule\BigData\task3\results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BDFF56E-B3D3-4538-9F06-BA2853F6C842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106B60E1-7990-426A-822C-B64C70E64DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{91B45539-7A7F-4AA7-AB16-5CA46AA24022}"/>
   </bookViews>
@@ -186,7 +186,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -200,7 +200,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Access Distribution</a:t>
+              <a:t>Verteilung der aufsummierten Zugriffszahlen</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -218,7 +218,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -263,17 +263,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -297,13 +297,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -487,8 +488,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="958816128"/>
         <c:axId val="1018227280"/>
       </c:barChart>
@@ -499,20 +500,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -531,11 +518,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -562,12 +549,53 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="958816128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -593,7 +621,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -665,7 +693,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -676,7 +704,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -699,18 +727,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -722,7 +750,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -730,14 +758,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -769,45 +794,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -819,34 +834,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -868,13 +879,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -889,139 +902,208 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1031,77 +1113,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1110,14 +1122,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1131,7 +1143,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1147,8 +1159,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1164,17 +1176,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1182,8 +1183,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1529,7 +1536,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
